--- a/data/results/daily_model/daily_model_results_(-0.6, 0.6, 0.6).xlsx
+++ b/data/results/daily_model/daily_model_results_(-0.6, 0.6, 0.6).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,31 @@
           <t>Accuracy (%)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Market threshold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Market min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Market max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,7 +478,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.34718826405869</v>
+        <v>62.59168704156479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05450546436368681</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.55441</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.06418</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +503,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.47677261613691</v>
+        <v>37.16381418092909</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.009583939973006913</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-19.35264</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.70093</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.680965147453083</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.64102564102564</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +528,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.76528117359413</v>
+        <v>92.1760391198044</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04158117063764853</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-18.75314</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.33066</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +553,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.32029339853301</v>
+        <v>81.11246943765281</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02983403801513819</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-12.78028</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.42348</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +578,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.09290953545232</v>
+        <v>94.8044009779951</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08368817696170747</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-16.47904</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.94325</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -555,13 +655,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -623,13 +723,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -639,13 +739,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="C3" t="n">
-        <v>1150</v>
+        <v>558</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
@@ -655,13 +755,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -723,13 +823,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>1533</v>
+        <v>1507</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -739,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -807,13 +907,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C3" t="n">
-        <v>1494</v>
+        <v>1327</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +923,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -891,13 +991,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1523</v>
+        <v>1551</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">

--- a/data/results/daily_model/daily_model_results_(-0.6, 0.6, 0.6).xlsx
+++ b/data/results/daily_model/daily_model_results_(-0.6, 0.6, 0.6).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,16 +460,6 @@
           <t>Market max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,7 +468,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.59168704156479</v>
+        <v>91.59212880143113</v>
       </c>
       <c r="C2" t="n">
         <v>0.05450546436368681</v>
@@ -489,12 +479,6 @@
       <c r="E2" t="n">
         <v>15.06418</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.16381418092909</v>
+        <v>44.02606806661839</v>
       </c>
       <c r="C3" t="n">
         <v>0.009583939973006913</v>
@@ -514,12 +498,6 @@
       <c r="E3" t="n">
         <v>13.70093</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.680965147453083</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25.64102564102564</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -528,7 +506,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.1760391198044</v>
+        <v>94.3089430894309</v>
       </c>
       <c r="C4" t="n">
         <v>0.04158117063764853</v>
@@ -539,12 +517,6 @@
       <c r="E4" t="n">
         <v>23.33066</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -553,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.11246943765281</v>
+        <v>84.25396825396825</v>
       </c>
       <c r="C5" t="n">
         <v>0.02983403801513819</v>
@@ -564,12 +536,6 @@
       <c r="E5" t="n">
         <v>12.42348</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -578,7 +544,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.8044009779951</v>
+        <v>98.16455696202532</v>
       </c>
       <c r="C6" t="n">
         <v>0.08368817696170747</v>
@@ -588,12 +554,6 @@
       </c>
       <c r="E6" t="n">
         <v>14.94325</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
